--- a/其他/BLU.xlsx
+++ b/其他/BLU.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\FFXIV_Auxiliary_Tools\其他\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4126C6DE-8984-40F2-B5C1-07BAAA9A75B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247A9749-F319-460C-BF41-52B0A3E978ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22590" yWindow="2835" windowWidth="18045" windowHeight="11835" xr2:uid="{6400A35D-EB49-423D-AE92-3F51980F4688}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="36495" windowHeight="16440" activeTab="1" xr2:uid="{6400A35D-EB49-423D-AE92-3F51980F4688}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
-    <sheet name="360秒循环威力" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="360秒循环威力" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="97">
   <si>
     <t>口笛</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -296,6 +297,103 @@
   </si>
   <si>
     <t>2.38GCD?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HW1读条</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>散开</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大圈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝毒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>排队</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>各自正点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>短D</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>长D</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>闲置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第4次大圈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1次大圈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>严重错误
++第3次大圈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2次大圈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>各自正点旁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HW2读条</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>左蓝毒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫毒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接毒然后正点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚下然后3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>长分摊后到1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -303,10 +401,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm:ss.000"/>
+    <numFmt numFmtId="177" formatCode="hh:mm:ss.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,6 +460,31 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -489,7 +613,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -556,17 +680,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -893,7 +1038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B7DE3F-C9FB-413F-A234-A68FB51E199E}">
   <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
@@ -2091,11 +2236,11 @@
       </c>
     </row>
     <row r="38" spans="1:18" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
@@ -2403,6 +2548,509 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F74059-294C-4A18-8338-6562AF3CBE63}">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.875" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="13.875" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.75" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="27">
+        <f>C2-$A$2</f>
+        <v>6.9155092592594614E-5</v>
+      </c>
+      <c r="E1" s="23">
+        <f>E2-$C$2</f>
+        <v>9.3842592592589813E-5</v>
+      </c>
+      <c r="F1" s="23">
+        <f>F2-$C$2</f>
+        <v>1.5162037037036447E-4</v>
+      </c>
+      <c r="G1" s="23">
+        <f>G2-$C$2</f>
+        <v>1.8716435185184982E-4</v>
+      </c>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23">
+        <f>I2-$C$2</f>
+        <v>3.1469907407407488E-4</v>
+      </c>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23">
+        <f t="shared" ref="K1" si="0">K2-$C$2</f>
+        <v>4.1578703703703396E-4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="25">
+        <v>4.3283425925925927E-2</v>
+      </c>
+      <c r="C2" s="26">
+        <v>4.3352581018518521E-2</v>
+      </c>
+      <c r="E2" s="25">
+        <v>4.3446423611111111E-2</v>
+      </c>
+      <c r="F2" s="25">
+        <v>4.3504201388888886E-2</v>
+      </c>
+      <c r="G2" s="25">
+        <v>4.3539745370370371E-2</v>
+      </c>
+      <c r="I2" s="25">
+        <v>4.3667280092592596E-2</v>
+      </c>
+      <c r="K2" s="25">
+        <v>4.3768368055555555E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="29"/>
+      <c r="J4" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="29"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="29"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="29"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="22">
+        <v>1</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="22">
+        <v>1</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="22">
+        <v>1</v>
+      </c>
+      <c r="I7" s="29"/>
+      <c r="J7" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="29"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="22">
+        <v>2</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="22">
+        <v>1</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="22">
+        <v>1</v>
+      </c>
+      <c r="I8" s="29"/>
+      <c r="J8" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="29"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="29"/>
+      <c r="J9" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="29"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="29"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="I11" s="24"/>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="24">
+        <f>G2-C2</f>
+        <v>1.8716435185184982E-4</v>
+      </c>
+      <c r="I12" s="24">
+        <f>I1-G1</f>
+        <v>1.2753472222222506E-4</v>
+      </c>
+      <c r="K12" s="24">
+        <f>K2-C2</f>
+        <v>4.1578703703703396E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="25">
+        <v>9.281250000000435E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="29"/>
+      <c r="J15" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="29"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="29"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="29"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="22">
+        <v>1</v>
+      </c>
+      <c r="E18" s="29"/>
+      <c r="F18" s="22">
+        <v>1</v>
+      </c>
+      <c r="G18" s="29"/>
+      <c r="H18" s="22">
+        <v>1</v>
+      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="29"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="22">
+        <v>2</v>
+      </c>
+      <c r="E19" s="29"/>
+      <c r="F19" s="22">
+        <v>1</v>
+      </c>
+      <c r="G19" s="29"/>
+      <c r="H19" s="22">
+        <v>1</v>
+      </c>
+      <c r="I19" s="29"/>
+      <c r="J19" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" s="29"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="29"/>
+      <c r="F20" s="22">
+        <v>3</v>
+      </c>
+      <c r="G20" s="29"/>
+      <c r="H20" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" s="29"/>
+      <c r="J20" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" s="29"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="29"/>
+      <c r="F21" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="29"/>
+      <c r="H21" s="22">
+        <v>1</v>
+      </c>
+      <c r="I21" s="29"/>
+      <c r="J21" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="K21" s="29"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="F22" s="25">
+        <v>4.3504201388888886E-2</v>
+      </c>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24">
+        <f>I2-G2</f>
+        <v>1.2753472222222506E-4</v>
+      </c>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F23" s="24">
+        <f>F22-C2</f>
+        <v>1.5162037037036447E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="E3:E10"/>
+    <mergeCell ref="G3:G10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I3:I10"/>
+    <mergeCell ref="K3:K10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G14:G21"/>
+    <mergeCell ref="I14:I21"/>
+    <mergeCell ref="K14:K21"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="E14:E21"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD90467-50A7-4220-ADBC-AD57F61CC66D}">
   <dimension ref="B3:H4"/>
   <sheetViews>
@@ -2462,7 +3110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079E05AE-DC66-461D-AC99-CD9C66D67FB1}">
   <dimension ref="A1:L47"/>
   <sheetViews>
@@ -2504,7 +3152,7 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="32">
         <v>1350</v>
       </c>
       <c r="C3" s="3"/>
@@ -2526,7 +3174,7 @@
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
         <v>8</v>
@@ -2745,14 +3393,14 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26" t="s">
+      <c r="H17" s="33"/>
+      <c r="I17" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="26"/>
+      <c r="J17" s="33"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
@@ -2792,7 +3440,7 @@
       <c r="G19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="34" t="s">
         <v>46</v>
       </c>
       <c r="I19" s="3" t="s">
@@ -2810,7 +3458,7 @@
       <c r="G20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="27"/>
+      <c r="H20" s="34"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
@@ -2818,7 +3466,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="27"/>
+      <c r="H21" s="34"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
@@ -2826,7 +3474,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="27"/>
+      <c r="H22" s="34"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
@@ -2835,25 +3483,25 @@
       <c r="F23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="32">
         <f>(350*1.5+400*1.5+130)*3</f>
         <v>3765</v>
       </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24">
+      <c r="H23" s="32"/>
+      <c r="I23" s="32">
         <f>1170*3</f>
         <v>3510</v>
       </c>
-      <c r="J23" s="24"/>
+      <c r="J23" s="32"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="23" t="str">
+      <c r="G24" s="31" t="str">
         <f>"+"&amp;G23-I23</f>
         <v>+255</v>
       </c>
-      <c r="H24" s="23"/>
+      <c r="H24" s="31"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
@@ -2884,14 +3532,14 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26" t="s">
+      <c r="H28" s="33"/>
+      <c r="I28" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J28" s="26"/>
+      <c r="J28" s="33"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E29" s="3" t="s">
@@ -2942,7 +3590,7 @@
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="29" t="s">
         <v>50</v>
       </c>
       <c r="H32" s="3"/>
@@ -2952,35 +3600,35 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="25"/>
+      <c r="G33" s="29"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34" s="32">
         <f>350*4*1.5+400*3*1.5+(550*1.5-250-250+550*1.5-250-210)*4+((550*0.5)-210)*4</f>
         <v>6920</v>
       </c>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24">
+      <c r="H34" s="32"/>
+      <c r="I34" s="32">
         <f>400*2*4*1.5+(400-210)*4</f>
         <v>5560</v>
       </c>
-      <c r="J34" s="24"/>
+      <c r="J34" s="32"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="23" t="str">
+      <c r="G35" s="31" t="str">
         <f>"+"&amp;G34-I34</f>
         <v>+1360</v>
       </c>
-      <c r="H35" s="23"/>
+      <c r="H35" s="31"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
@@ -3036,7 +3684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E218C2-284C-44A1-A0A3-8F0B48971BC4}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -3204,7 +3852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D6ECBC-4253-4DB2-B7C8-0AE200907EA8}">
   <dimension ref="A1"/>
   <sheetViews>
